--- a/preposition-1~200.xlsx
+++ b/preposition-1~200.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>대한 항공에 탑승하긴 것을 환영합니다.</t>
   </si>
@@ -145,7 +145,7 @@
     <t>All the things he has about him are illegal.</t>
   </si>
   <si>
-    <t>그에게는 무엇인가 이품이 있다.</t>
+    <t>그에게는 무엇인가 인품이 있다.</t>
   </si>
   <si>
     <t>There is something noble about him.</t>
@@ -203,6 +203,168 @@
   </si>
   <si>
     <t>It was a beautiful Friday afternoon and the weekend was about to begin, but Rob had a lot on his mind.</t>
+  </si>
+  <si>
+    <t>그 나무 위에 새 한마리가 있다.</t>
+  </si>
+  <si>
+    <t>There is a bird above the tree.</t>
+  </si>
+  <si>
+    <t>당신은 강 상류에서 조그마한 마을을 찾게 될 것이다.</t>
+  </si>
+  <si>
+    <t>You can find a small village above the river.</t>
+  </si>
+  <si>
+    <t>그는 학교 위로 다섯 번째 집에 산다.</t>
+  </si>
+  <si>
+    <t>He lives five doors above the school.</t>
+  </si>
+  <si>
+    <t>그것을 벽난로 위에 거는 것이 어떠냐?</t>
+  </si>
+  <si>
+    <t>Why don't you hang it above the firepalce?</t>
+  </si>
+  <si>
+    <t>그 타워는 해발 500미터로 서있다.</t>
+  </si>
+  <si>
+    <t>The tower stands 500 meters above sea level.</t>
+  </si>
+  <si>
+    <t>내가 알고 있는 한 위의 진술은 틀림없다.</t>
+  </si>
+  <si>
+    <t>The statements above are ture to the best of my knowledge</t>
+  </si>
+  <si>
+    <t>그 봉우리는 구름 위에 솟아 있다.</t>
+  </si>
+  <si>
+    <t>The peak rises above the clouds.</t>
+  </si>
+  <si>
+    <t>그는 구름을 뚫고 위로 날았다.</t>
+  </si>
+  <si>
+    <t>He flew above the clouds.</t>
+  </si>
+  <si>
+    <t>물 위로 머리를 내놓고 있으려고 애쓰지 마라.</t>
+  </si>
+  <si>
+    <t>Don't try hard to keep your head above water.</t>
+  </si>
+  <si>
+    <t>이 지역에서는 시속 30마일 이상의 속도가 금지됩니다.</t>
+  </si>
+  <si>
+    <t>Speeds abvoe thirty miles an hour are prohibited in this area.</t>
+  </si>
+  <si>
+    <t>우리는 20세 이상의 사람들을 받습니다.</t>
+  </si>
+  <si>
+    <t>We allow men above 20.</t>
+  </si>
+  <si>
+    <t>그는 나보다 상급자다.</t>
+  </si>
+  <si>
+    <t>He is above me in rank.</t>
+  </si>
+  <si>
+    <t>나는 생명보다 명예를 중히 여긴다.</t>
+  </si>
+  <si>
+    <t>I value honor above life.</t>
+  </si>
+  <si>
+    <t>수입 이상의 생활을 하지마라.</t>
+  </si>
+  <si>
+    <t>Don't live above your income.</t>
+  </si>
+  <si>
+    <t>오늘은 내내 영상에 있겠습니다.</t>
+  </si>
+  <si>
+    <t>We will be above the freezing point all day today.</t>
+  </si>
+  <si>
+    <t>이 책은 내게는 너무 어려워서 이해할 수 없다.</t>
+  </si>
+  <si>
+    <t>The book is above me my understanding.</t>
+  </si>
+  <si>
+    <t>당신은 이기심을 초월하고 있다.</t>
+  </si>
+  <si>
+    <t>You are above selfishness.</t>
+  </si>
+  <si>
+    <t>그는 거짓말을 할 사람은 아니다.</t>
+  </si>
+  <si>
+    <t>He is above telling lies.</t>
+  </si>
+  <si>
+    <t>그는 무단횡단으로 그 길을 건너갔다.</t>
+  </si>
+  <si>
+    <t>He went across the road by jaywalking.</t>
+  </si>
+  <si>
+    <t>그들은 강 건너편에서 살았다.</t>
+  </si>
+  <si>
+    <t>They lived across the river.</t>
+  </si>
+  <si>
+    <t>그는 어깨에 총을 메고 나갔다.</t>
+  </si>
+  <si>
+    <t>He went out with a rifle across his shoulder.</t>
+  </si>
+  <si>
+    <t>나는 그와 책상을 마주하고 앉았다.</t>
+  </si>
+  <si>
+    <t>I sat across the table from him.</t>
+  </si>
+  <si>
+    <t>그는 호위를 받으며 그 다리를 건넜다.</t>
+  </si>
+  <si>
+    <t>He was escorted acorss the bridge.</t>
+  </si>
+  <si>
+    <t>그는 그 방을 가로질러 걷기 시작했다.</t>
+  </si>
+  <si>
+    <t>He started to walk across the room.</t>
+  </si>
+  <si>
+    <t>그는 맞은 편 벽 위의 그 그림을 쳐다보았다.</t>
+  </si>
+  <si>
+    <t>He looked across at the painting on the wall.</t>
+  </si>
+  <si>
+    <t>당신은 이 강을 헤엄쳐 건널 수 있는가?</t>
+  </si>
+  <si>
+    <t>Can you swim across this river?</t>
+  </si>
+  <si>
+    <t>그녀는 그의 얼굴을 휘갈겼다.</t>
+  </si>
+  <si>
+    <t>She hit him across the face.</t>
   </si>
 </sst>
 </file>
@@ -719,6 +881,222 @@
         <v>63</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
